--- a/data/graph-data/variazione_giornaliera.xlsx
+++ b/data/graph-data/variazione_giornaliera.xlsx
@@ -499,7 +499,7 @@
         <v>0.19</v>
       </c>
       <c r="H2">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
         <v>0.41</v>
@@ -765,7 +765,7 @@
         <v>0.33</v>
       </c>
       <c r="F6">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G6">
         <v>0.28</v>
@@ -875,7 +875,7 @@
         <v>0.86</v>
       </c>
       <c r="T7">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U7">
         <v>0.29</v>
@@ -940,7 +940,7 @@
         <v>0.83</v>
       </c>
       <c r="S8">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T8">
         <v>0.76</v>
@@ -1085,7 +1085,7 @@
         <v>0.25</v>
       </c>
       <c r="V10">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="11">
@@ -1153,7 +1153,7 @@
         <v>0.23</v>
       </c>
       <c r="V11">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/graph-data/variazione_giornaliera.xlsx
+++ b/data/graph-data/variazione_giornaliera.xlsx
@@ -1099,7 +1099,7 @@
         <v>0.36</v>
       </c>
       <c r="D11">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E11">
         <v>0.36</v>
@@ -1111,7 +1111,7 @@
         <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I11">
         <v>0.5600000000000001</v>

--- a/data/graph-data/variazione_giornaliera.xlsx
+++ b/data/graph-data/variazione_giornaliera.xlsx
@@ -478,306 +478,306 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B2">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="C2">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E2">
         <v>0.31</v>
       </c>
       <c r="F2">
+        <v>0.51</v>
+      </c>
+      <c r="G2">
+        <v>0.22</v>
+      </c>
+      <c r="H2">
+        <v>0.75</v>
+      </c>
+      <c r="I2">
         <v>0.45</v>
       </c>
-      <c r="G2">
-        <v>0.19</v>
-      </c>
-      <c r="H2">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.41</v>
-      </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="K2">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>0.32</v>
+      </c>
+      <c r="N2">
+        <v>0.48</v>
+      </c>
+      <c r="O2">
+        <v>0.18</v>
+      </c>
+      <c r="P2">
+        <v>0.18</v>
+      </c>
+      <c r="Q2">
+        <v>0.97</v>
+      </c>
+      <c r="R2">
+        <v>0.75</v>
+      </c>
+      <c r="S2">
+        <v>0.66</v>
+      </c>
+      <c r="T2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="U2">
         <v>0.22</v>
       </c>
-      <c r="M2">
-        <v>0.29</v>
-      </c>
-      <c r="N2">
-        <v>0.44</v>
-      </c>
-      <c r="O2">
-        <v>0.17</v>
-      </c>
-      <c r="P2">
-        <v>0.16</v>
-      </c>
-      <c r="Q2">
-        <v>0.9</v>
-      </c>
-      <c r="R2">
-        <v>0.74</v>
-      </c>
-      <c r="S2">
-        <v>0.58</v>
-      </c>
-      <c r="T2">
-        <v>0.47</v>
-      </c>
-      <c r="U2">
-        <v>0.16</v>
-      </c>
       <c r="V2">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B3">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="C3">
+        <v>0.28</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>0.33</v>
+      </c>
+      <c r="F3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G3">
         <v>0.25</v>
       </c>
-      <c r="D3">
-        <v>0.26</v>
-      </c>
-      <c r="E3">
-        <v>0.31</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0.8</v>
+      </c>
+      <c r="I3">
         <v>0.51</v>
       </c>
-      <c r="G3">
-        <v>0.22</v>
-      </c>
-      <c r="H3">
-        <v>0.75</v>
-      </c>
-      <c r="I3">
-        <v>0.45</v>
-      </c>
       <c r="J3">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="K3">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="L3">
+        <v>0.18</v>
+      </c>
+      <c r="M3">
+        <v>0.28</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
         <v>0.2</v>
       </c>
-      <c r="M3">
-        <v>0.32</v>
-      </c>
-      <c r="N3">
-        <v>0.48</v>
-      </c>
-      <c r="O3">
-        <v>0.18</v>
-      </c>
       <c r="P3">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="Q3">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="R3">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="S3">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="T3">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="U3">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="V3">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B4">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="C4">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="E4">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="F4">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="G4">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="I4">
         <v>0.51</v>
       </c>
       <c r="J4">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K4">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="L4">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M4">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O4">
         <v>0.2</v>
       </c>
       <c r="P4">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="Q4">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="R4">
+        <v>0.82</v>
+      </c>
+      <c r="S4">
         <v>0.79</v>
       </c>
-      <c r="S4">
-        <v>0.72</v>
-      </c>
       <c r="T4">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="U4">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="V4">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B5">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
         <v>0.27</v>
       </c>
       <c r="D5">
+        <v>0.35</v>
+      </c>
+      <c r="E5">
         <v>0.33</v>
       </c>
-      <c r="E5">
-        <v>0.34</v>
-      </c>
       <c r="F5">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G5">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="H5">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I5">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="J5">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K5">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="L5">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="N5">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P5">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="Q5">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="R5">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="S5">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="T5">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="U5">
         <v>0.27</v>
       </c>
       <c r="V5">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="C6">
         <v>0.27</v>
       </c>
       <c r="D6">
+        <v>0.39</v>
+      </c>
+      <c r="E6">
+        <v>0.32</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
         <v>0.35</v>
       </c>
-      <c r="E6">
-        <v>0.33</v>
-      </c>
-      <c r="F6">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.28</v>
-      </c>
       <c r="H6">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="I6">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J6">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K6">
         <v>0.39</v>
@@ -786,69 +786,69 @@
         <v>0.18</v>
       </c>
       <c r="M6">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="N6">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="O6">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="P6">
         <v>0.22</v>
       </c>
       <c r="Q6">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="R6">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="S6">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="T6">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U6">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="V6">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B7">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="C7">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="D7">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="E7">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="G7">
+        <v>0.33</v>
+      </c>
+      <c r="H7">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.58</v>
+      </c>
+      <c r="J7">
         <v>0.35</v>
       </c>
-      <c r="H7">
-        <v>0.8</v>
-      </c>
-      <c r="I7">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.34</v>
-      </c>
       <c r="K7">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="L7">
         <v>0.18</v>
@@ -857,45 +857,45 @@
         <v>0.28</v>
       </c>
       <c r="N7">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
         <v>0.23</v>
       </c>
       <c r="P7">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Q7">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="R7">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="S7">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T7">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="U7">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="V7">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="B8">
         <v>0.34</v>
       </c>
       <c r="C8">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="D8">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="E8">
         <v>0.33</v>
@@ -904,16 +904,16 @@
         <v>0.72</v>
       </c>
       <c r="G8">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="H8">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I8">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J8">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="K8">
         <v>0.44</v>
@@ -922,217 +922,211 @@
         <v>0.18</v>
       </c>
       <c r="M8">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="N8">
         <v>0.5</v>
       </c>
       <c r="O8">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="P8">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Q8">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="R8">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="S8">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="U8">
         <v>0.3</v>
       </c>
       <c r="V8">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="B9">
+        <v>0.37</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>0.48</v>
+      </c>
+      <c r="E9">
         <v>0.34</v>
       </c>
-      <c r="C9">
-        <v>0.26</v>
-      </c>
-      <c r="D9">
-        <v>0.49</v>
-      </c>
-      <c r="E9">
-        <v>0.33</v>
-      </c>
       <c r="F9">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="G9">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="I9">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="J9">
         <v>0.36</v>
       </c>
       <c r="K9">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="L9">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="M9">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="N9">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="O9">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="P9">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="Q9">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R9">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="T9">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="U9">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="V9">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B10">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="D10">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E10">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="F10">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="G10">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H10">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="I10">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J10">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="K10">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
         <v>0.17</v>
       </c>
       <c r="M10">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="N10">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="O10">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="P10">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="Q10">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R10">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="S10">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="T10">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="U10">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="V10">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B11">
+        <v>0.37</v>
+      </c>
+      <c r="C11">
         <v>0.39</v>
       </c>
-      <c r="C11">
-        <v>0.36</v>
-      </c>
       <c r="D11">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="E11">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F11">
         <v>0.77</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
-      </c>
-      <c r="H11">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="I11">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="J11">
         <v>0.38</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="L11">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="M11">
-        <v>0.34</v>
-      </c>
-      <c r="N11">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="O11">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="P11">
         <v>0.27</v>
@@ -1141,19 +1135,19 @@
         <v>1.39</v>
       </c>
       <c r="R11">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="S11">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="T11">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="U11">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="V11">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
